--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\elec\DRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="DRC-BDRC" sheetId="5" r:id="rId3"/>
-    <sheet name="DRC-PADRC" sheetId="2" r:id="rId4"/>
+    <sheet name="Brazil-USA" sheetId="6" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId3"/>
+    <sheet name="DRC-BDRC" sheetId="5" r:id="rId4"/>
+    <sheet name="DRC-PADRC" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -88,13 +89,34 @@
   </si>
   <si>
     <t>We then scale the potential from 2030 to 2050 by the growth in peak demand (EPS model output).</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Installed Cap (GW)</t>
+  </si>
+  <si>
+    <t>Notes (Brazil):</t>
+  </si>
+  <si>
+    <t>We were not able to find data for the case of Brazil for the case of this variable</t>
+  </si>
+  <si>
+    <t>Thus, we considered the BAU Demand Response Capacity proportionally to the ratio between the Brazilian installed cap and the US installed capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +140,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,11 +177,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,10 +203,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,7 +513,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -573,15 +611,21 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -622,10 +666,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="14">
+        <f>B2/B3</f>
+        <v>0.15887850467289719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -872,268 +1123,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AH2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2018</v>
-      </c>
-      <c r="C1">
-        <v>2019</v>
-      </c>
-      <c r="D1">
-        <v>2020</v>
-      </c>
-      <c r="E1">
-        <v>2021</v>
-      </c>
-      <c r="F1">
-        <v>2022</v>
-      </c>
-      <c r="G1">
-        <v>2023</v>
-      </c>
-      <c r="H1">
-        <v>2024</v>
-      </c>
-      <c r="I1">
-        <v>2025</v>
-      </c>
-      <c r="J1">
-        <v>2026</v>
-      </c>
-      <c r="K1">
-        <v>2027</v>
-      </c>
-      <c r="L1">
-        <v>2028</v>
-      </c>
-      <c r="M1">
-        <v>2029</v>
-      </c>
-      <c r="N1">
-        <v>2030</v>
-      </c>
-      <c r="O1">
-        <v>2031</v>
-      </c>
-      <c r="P1">
-        <v>2032</v>
-      </c>
-      <c r="Q1">
-        <v>2033</v>
-      </c>
-      <c r="R1">
-        <v>2034</v>
-      </c>
-      <c r="S1">
-        <v>2035</v>
-      </c>
-      <c r="T1">
-        <v>2036</v>
-      </c>
-      <c r="U1">
-        <v>2037</v>
-      </c>
-      <c r="V1">
-        <v>2038</v>
-      </c>
-      <c r="W1">
-        <v>2039</v>
-      </c>
-      <c r="X1">
-        <v>2040</v>
-      </c>
-      <c r="Y1">
-        <v>2041</v>
-      </c>
-      <c r="Z1">
-        <v>2042</v>
-      </c>
-      <c r="AA1">
-        <v>2043</v>
-      </c>
-      <c r="AB1">
-        <v>2044</v>
-      </c>
-      <c r="AC1">
-        <v>2045</v>
-      </c>
-      <c r="AD1">
-        <v>2046</v>
-      </c>
-      <c r="AE1">
-        <v>2047</v>
-      </c>
-      <c r="AF1">
-        <v>2048</v>
-      </c>
-      <c r="AG1">
-        <v>2049</v>
-      </c>
-      <c r="AH1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8">
-        <f>C2</f>
-        <v>59000</v>
-      </c>
-      <c r="C2" s="8">
-        <f>Calculations!A3</f>
-        <v>59000</v>
-      </c>
-      <c r="D2" s="8">
-        <f>$C$2*(Calculations!D7/Calculations!$C$7)</f>
-        <v>56816.464532194783</v>
-      </c>
-      <c r="E2" s="8">
-        <f>$C$2*(Calculations!E7/Calculations!$C$7)</f>
-        <v>58832.246584697867</v>
-      </c>
-      <c r="F2" s="8">
-        <f>$C$2*(Calculations!F7/Calculations!$C$7)</f>
-        <v>59841.508145388158</v>
-      </c>
-      <c r="G2" s="8">
-        <f>$C$2*(Calculations!G7/Calculations!$C$7)</f>
-        <v>60441.185489060117</v>
-      </c>
-      <c r="H2" s="8">
-        <f>$C$2*(Calculations!H7/Calculations!$C$7)</f>
-        <v>60910.319427441813</v>
-      </c>
-      <c r="I2" s="8">
-        <f>$C$2*(Calculations!I7/Calculations!$C$7)</f>
-        <v>61332.85519490626</v>
-      </c>
-      <c r="J2" s="8">
-        <f>$C$2*(Calculations!J7/Calculations!$C$7)</f>
-        <v>61698.445256440929</v>
-      </c>
-      <c r="K2" s="8">
-        <f>$C$2*(Calculations!K7/Calculations!$C$7)</f>
-        <v>62110.496435448993</v>
-      </c>
-      <c r="L2" s="8">
-        <f>$C$2*(Calculations!L7/Calculations!$C$7)</f>
-        <v>62645.416026890351</v>
-      </c>
-      <c r="M2" s="8">
-        <f>$C$2*(Calculations!M7/Calculations!$C$7)</f>
-        <v>63199.865734083796</v>
-      </c>
-      <c r="N2" s="8">
-        <f>$C$2*(Calculations!N7/Calculations!$C$7)</f>
-        <v>63642.822464685501</v>
-      </c>
-      <c r="O2" s="8">
-        <f>$C$2*(Calculations!O7/Calculations!$C$7)</f>
-        <v>64182.53892666247</v>
-      </c>
-      <c r="P2" s="8">
-        <f>$C$2*(Calculations!P7/Calculations!$C$7)</f>
-        <v>64747.267642146486</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>$C$2*(Calculations!Q7/Calculations!$C$7)</f>
-        <v>65344.752130716464</v>
-      </c>
-      <c r="R2" s="8">
-        <f>$C$2*(Calculations!R7/Calculations!$C$7)</f>
-        <v>66060.171107740272</v>
-      </c>
-      <c r="S2" s="8">
-        <f>$C$2*(Calculations!S7/Calculations!$C$7)</f>
-        <v>66822.325309125197</v>
-      </c>
-      <c r="T2" s="8">
-        <f>$C$2*(Calculations!T7/Calculations!$C$7)</f>
-        <v>67635.668971797189</v>
-      </c>
-      <c r="U2" s="8">
-        <f>$C$2*(Calculations!U7/Calculations!$C$7)</f>
-        <v>68486.017064315238</v>
-      </c>
-      <c r="V2" s="8">
-        <f>$C$2*(Calculations!V7/Calculations!$C$7)</f>
-        <v>69383.305961360224</v>
-      </c>
-      <c r="W2" s="8">
-        <f>$C$2*(Calculations!W7/Calculations!$C$7)</f>
-        <v>70259.077467716954</v>
-      </c>
-      <c r="X2" s="8">
-        <f>$C$2*(Calculations!X7/Calculations!$C$7)</f>
-        <v>71106.067750860064</v>
-      </c>
-      <c r="Y2" s="8">
-        <f>$C$2*(Calculations!Y7/Calculations!$C$7)</f>
-        <v>71921.535741912099</v>
-      </c>
-      <c r="Z2" s="8">
-        <f>$C$2*(Calculations!Z7/Calculations!$C$7)</f>
-        <v>72739.744801841618</v>
-      </c>
-      <c r="AA2" s="8">
-        <f>$C$2*(Calculations!AA7/Calculations!$C$7)</f>
-        <v>73533.284241873771</v>
-      </c>
-      <c r="AB2" s="8">
-        <f>$C$2*(Calculations!AB7/Calculations!$C$7)</f>
-        <v>74349.437500145184</v>
-      </c>
-      <c r="AC2" s="8">
-        <f>$C$2*(Calculations!AC7/Calculations!$C$7)</f>
-        <v>75142.291672957959</v>
-      </c>
-      <c r="AD2" s="8">
-        <f>$C$2*(Calculations!AD7/Calculations!$C$7)</f>
-        <v>75921.440501383317</v>
-      </c>
-      <c r="AE2" s="8">
-        <f>$C$2*(Calculations!AE7/Calculations!$C$7)</f>
-        <v>76666.325968840087</v>
-      </c>
-      <c r="AF2" s="8">
-        <f>$C$2*(Calculations!AF7/Calculations!$C$7)</f>
-        <v>77383.800747522007</v>
-      </c>
-      <c r="AG2" s="8">
-        <f>$C$2*(Calculations!AG7/Calculations!$C$7)</f>
-        <v>78049.880484751062</v>
-      </c>
-      <c r="AH2" s="8">
-        <f>$C$2*(Calculations!AH7/Calculations!$C$7)</f>
-        <v>78745.4267124131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1145,7 +1134,269 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1">
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <v>2025</v>
+      </c>
+      <c r="J1">
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <v>2027</v>
+      </c>
+      <c r="L1">
+        <v>2028</v>
+      </c>
+      <c r="M1">
+        <v>2029</v>
+      </c>
+      <c r="N1">
+        <v>2030</v>
+      </c>
+      <c r="O1">
+        <v>2031</v>
+      </c>
+      <c r="P1">
+        <v>2032</v>
+      </c>
+      <c r="Q1">
+        <v>2033</v>
+      </c>
+      <c r="R1">
+        <v>2034</v>
+      </c>
+      <c r="S1">
+        <v>2035</v>
+      </c>
+      <c r="T1">
+        <v>2036</v>
+      </c>
+      <c r="U1">
+        <v>2037</v>
+      </c>
+      <c r="V1">
+        <v>2038</v>
+      </c>
+      <c r="W1">
+        <v>2039</v>
+      </c>
+      <c r="X1">
+        <v>2040</v>
+      </c>
+      <c r="Y1">
+        <v>2041</v>
+      </c>
+      <c r="Z1">
+        <v>2042</v>
+      </c>
+      <c r="AA1">
+        <v>2043</v>
+      </c>
+      <c r="AB1">
+        <v>2044</v>
+      </c>
+      <c r="AC1">
+        <v>2045</v>
+      </c>
+      <c r="AD1">
+        <v>2046</v>
+      </c>
+      <c r="AE1">
+        <v>2047</v>
+      </c>
+      <c r="AF1">
+        <v>2048</v>
+      </c>
+      <c r="AG1">
+        <v>2049</v>
+      </c>
+      <c r="AH1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <f>C2*'Brazil-USA'!$B$4</f>
+        <v>1489.3003755786528</v>
+      </c>
+      <c r="C2" s="8">
+        <f>Calculations!A3*'Brazil-USA'!$B$4</f>
+        <v>9373.8317757009336</v>
+      </c>
+      <c r="D2" s="8">
+        <f>$C$2*(Calculations!D7/Calculations!$C$7)</f>
+        <v>9026.9149256758064</v>
+      </c>
+      <c r="E2" s="8">
+        <f>$C$2*(Calculations!E7/Calculations!$C$7)</f>
+        <v>9347.1793639239586</v>
+      </c>
+      <c r="F2" s="8">
+        <f>$C$2*(Calculations!F7/Calculations!$C$7)</f>
+        <v>9507.5293315102663</v>
+      </c>
+      <c r="G2" s="8">
+        <f>$C$2*(Calculations!G7/Calculations!$C$7)</f>
+        <v>9602.8051711590833</v>
+      </c>
+      <c r="H2" s="8">
+        <f>$C$2*(Calculations!H7/Calculations!$C$7)</f>
+        <v>9677.3404697804745</v>
+      </c>
+      <c r="I2" s="8">
+        <f>$C$2*(Calculations!I7/Calculations!$C$7)</f>
+        <v>9744.4723206860399</v>
+      </c>
+      <c r="J2" s="8">
+        <f>$C$2*(Calculations!J7/Calculations!$C$7)</f>
+        <v>9802.5567229859407</v>
+      </c>
+      <c r="K2" s="8">
+        <f>$C$2*(Calculations!K7/Calculations!$C$7)</f>
+        <v>9868.0227981554472</v>
+      </c>
+      <c r="L2" s="8">
+        <f>$C$2*(Calculations!L7/Calculations!$C$7)</f>
+        <v>9953.0100229638865</v>
+      </c>
+      <c r="M2" s="8">
+        <f>$C$2*(Calculations!M7/Calculations!$C$7)</f>
+        <v>10041.100163359106</v>
+      </c>
+      <c r="N2" s="8">
+        <f>$C$2*(Calculations!N7/Calculations!$C$7)</f>
+        <v>10111.476466351902</v>
+      </c>
+      <c r="O2" s="8">
+        <f>$C$2*(Calculations!O7/Calculations!$C$7)</f>
+        <v>10197.225810778149</v>
+      </c>
+      <c r="P2" s="8">
+        <f>$C$2*(Calculations!P7/Calculations!$C$7)</f>
+        <v>10286.949064640095</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>$C$2*(Calculations!Q7/Calculations!$C$7)</f>
+        <v>10381.876506749344</v>
+      </c>
+      <c r="R2" s="8">
+        <f>$C$2*(Calculations!R7/Calculations!$C$7)</f>
+        <v>10495.5412040335</v>
+      </c>
+      <c r="S2" s="8">
+        <f>$C$2*(Calculations!S7/Calculations!$C$7)</f>
+        <v>10616.631123879704</v>
+      </c>
+      <c r="T2" s="8">
+        <f>$C$2*(Calculations!T7/Calculations!$C$7)</f>
+        <v>10745.853948790207</v>
+      </c>
+      <c r="U2" s="8">
+        <f>$C$2*(Calculations!U7/Calculations!$C$7)</f>
+        <v>10880.955982180923</v>
+      </c>
+      <c r="V2" s="8">
+        <f>$C$2*(Calculations!V7/Calculations!$C$7)</f>
+        <v>11023.515900403025</v>
+      </c>
+      <c r="W2" s="8">
+        <f>$C$2*(Calculations!W7/Calculations!$C$7)</f>
+        <v>11162.657167768111</v>
+      </c>
+      <c r="X2" s="8">
+        <f>$C$2*(Calculations!X7/Calculations!$C$7)</f>
+        <v>11297.225717426365</v>
+      </c>
+      <c r="Y2" s="8">
+        <f>$C$2*(Calculations!Y7/Calculations!$C$7)</f>
+        <v>11426.786052453323</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>$C$2*(Calculations!Z7/Calculations!$C$7)</f>
+        <v>11556.781884404743</v>
+      </c>
+      <c r="AA2" s="8">
+        <f>$C$2*(Calculations!AA7/Calculations!$C$7)</f>
+        <v>11682.858244036019</v>
+      </c>
+      <c r="AB2" s="8">
+        <f>$C$2*(Calculations!AB7/Calculations!$C$7)</f>
+        <v>11812.527453294093</v>
+      </c>
+      <c r="AC2" s="8">
+        <f>$C$2*(Calculations!AC7/Calculations!$C$7)</f>
+        <v>11938.494938694254</v>
+      </c>
+      <c r="AD2" s="8">
+        <f>$C$2*(Calculations!AD7/Calculations!$C$7)</f>
+        <v>12062.284939472114</v>
+      </c>
+      <c r="AE2" s="8">
+        <f>$C$2*(Calculations!AE7/Calculations!$C$7)</f>
+        <v>12180.631228694219</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>$C$2*(Calculations!AF7/Calculations!$C$7)</f>
+        <v>12294.622548671719</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>$C$2*(Calculations!AG7/Calculations!$C$7)</f>
+        <v>12400.448301315588</v>
+      </c>
+      <c r="AH2" s="8">
+        <f>$C$2*(Calculations!AH7/Calculations!$C$7)</f>
+        <v>12510.955645897406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1262,136 +1513,136 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f>C2</f>
-        <v>59000</v>
+        <f>C2*'Brazil-USA'!$B$4</f>
+        <v>1489.3003755786528</v>
       </c>
       <c r="C2" s="8">
-        <f>Calculations!A3</f>
-        <v>59000</v>
+        <f>Calculations!A3*'Brazil-USA'!$B$4</f>
+        <v>9373.8317757009336</v>
       </c>
       <c r="D2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!D1)</f>
-        <v>71636.363636363298</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!D1)*'Brazil-USA'!$B$4</f>
+        <v>11381.478334749308</v>
       </c>
       <c r="E2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!E1)</f>
-        <v>84272.727272730321</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!E1)*'Brazil-USA'!$B$4</f>
+        <v>13389.124893798275</v>
       </c>
       <c r="F2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!F1)</f>
-        <v>96909.090909093618</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!F1)*'Brazil-USA'!$B$4</f>
+        <v>15396.771452846649</v>
       </c>
       <c r="G2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!G1)</f>
-        <v>109545.45454545692</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!G1)*'Brazil-USA'!$B$4</f>
+        <v>17404.418011895024</v>
       </c>
       <c r="H2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!H1)</f>
-        <v>122181.81818182021</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!H1)*'Brazil-USA'!$B$4</f>
+        <v>19412.064570943396</v>
       </c>
       <c r="I2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!I1)</f>
-        <v>134818.18181818351</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!I1)*'Brazil-USA'!$B$4</f>
+        <v>21419.711129991771</v>
       </c>
       <c r="J2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!J1)</f>
-        <v>147454.54545454681</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!J1)*'Brazil-USA'!$B$4</f>
+        <v>23427.357689040145</v>
       </c>
       <c r="K2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!K1)</f>
-        <v>160090.90909091011</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!K1)*'Brazil-USA'!$B$4</f>
+        <v>25435.00424808852</v>
       </c>
       <c r="L2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!L1)</f>
-        <v>172727.2727272734</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!L1)*'Brazil-USA'!$B$4</f>
+        <v>27442.650807136895</v>
       </c>
       <c r="M2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!M1)</f>
-        <v>185363.6363636367</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!M1)*'Brazil-USA'!$B$4</f>
+        <v>29450.29736618527</v>
       </c>
       <c r="N2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)</f>
-        <v>198000</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)*'Brazil-USA'!$B$4</f>
+        <v>31457.943925233641</v>
       </c>
       <c r="O2" s="8">
         <f>$N$2*(Calculations!O7/Calculations!$N$7)</f>
-        <v>199679.11879663626</v>
+        <v>31724.719808811366</v>
       </c>
       <c r="P2" s="8">
         <f>$N$2*(Calculations!P7/Calculations!$N$7)</f>
-        <v>201436.05353547315</v>
+        <v>32003.858972925638</v>
       </c>
       <c r="Q2" s="8">
         <f>$N$2*(Calculations!Q7/Calculations!$N$7)</f>
-        <v>203294.89517943861</v>
+        <v>32299.188953742578</v>
       </c>
       <c r="R2" s="8">
         <f>$N$2*(Calculations!R7/Calculations!$N$7)</f>
-        <v>205520.64432073908</v>
+        <v>32652.812649089385</v>
       </c>
       <c r="S2" s="8">
         <f>$N$2*(Calculations!S7/Calculations!$N$7)</f>
-        <v>207891.79201705556</v>
+        <v>33029.537049438732</v>
       </c>
       <c r="T2" s="8">
         <f>$N$2*(Calculations!T7/Calculations!$N$7)</f>
-        <v>210422.19590193059</v>
+        <v>33431.563834886168</v>
       </c>
       <c r="U2" s="8">
         <f>$N$2*(Calculations!U7/Calculations!$N$7)</f>
-        <v>213067.72474239013</v>
+        <v>33851.881501127398</v>
       </c>
       <c r="V2" s="8">
         <f>$N$2*(Calculations!V7/Calculations!$N$7)</f>
-        <v>215859.29172095226</v>
+        <v>34295.401488375588</v>
       </c>
       <c r="W2" s="8">
         <f>$N$2*(Calculations!W7/Calculations!$N$7)</f>
-        <v>218583.91566978561</v>
+        <v>34728.285667162192</v>
       </c>
       <c r="X2" s="8">
         <f>$N$2*(Calculations!X7/Calculations!$N$7)</f>
-        <v>221218.99798649768</v>
+        <v>35146.943605331406</v>
       </c>
       <c r="Y2" s="8">
         <f>$N$2*(Calculations!Y7/Calculations!$N$7)</f>
-        <v>223756.01089660072</v>
+        <v>35550.020422824411</v>
       </c>
       <c r="Z2" s="8">
         <f>$N$2*(Calculations!Z7/Calculations!$N$7)</f>
-        <v>226301.55158119151</v>
+        <v>35954.45212037622</v>
       </c>
       <c r="AA2" s="8">
         <f>$N$2*(Calculations!AA7/Calculations!$N$7)</f>
-        <v>228770.34229539265</v>
+        <v>36346.689897398828</v>
       </c>
       <c r="AB2" s="8">
         <f>$N$2*(Calculations!AB7/Calculations!$N$7)</f>
-        <v>231309.4871491176</v>
+        <v>36750.105434906531</v>
       </c>
       <c r="AC2" s="8">
         <f>$N$2*(Calculations!AC7/Calculations!$N$7)</f>
-        <v>233776.14591969681</v>
+        <v>37142.004491914442</v>
       </c>
       <c r="AD2" s="8">
         <f>$N$2*(Calculations!AD7/Calculations!$N$7)</f>
-        <v>236200.16581783726</v>
+        <v>37527.129148628344</v>
       </c>
       <c r="AE2" s="8">
         <f>$N$2*(Calculations!AE7/Calculations!$N$7)</f>
-        <v>238517.58853488098</v>
+        <v>37895.31780460725</v>
       </c>
       <c r="AF2" s="8">
         <f>$N$2*(Calculations!AF7/Calculations!$N$7)</f>
-        <v>240749.73350704726</v>
+        <v>38249.957659998159</v>
       </c>
       <c r="AG2" s="8">
         <f>$N$2*(Calculations!AG7/Calculations!$N$7)</f>
-        <v>242821.98270756842</v>
+        <v>38579.193514286562</v>
       </c>
       <c r="AH2" s="8">
         <f>$N$2*(Calculations!AH7/Calculations!$N$7)</f>
-        <v>244985.90548383276</v>
+        <v>38922.994329207067</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -13,17 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Brazil-USA" sheetId="6" r:id="rId2"/>
-    <sheet name="Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="DRC-BDRC" sheetId="5" r:id="rId4"/>
-    <sheet name="DRC-PADRC" sheetId="2" r:id="rId5"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="DRC-BDRC" sheetId="5" r:id="rId3"/>
+    <sheet name="DRC-PADRC" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Year</t>
   </si>
@@ -73,50 +72,44 @@
     <t>Time (Year)</t>
   </si>
   <si>
+    <t>To estimate BAU DR Capacity, we scale Brattle's 2019 estimate of demand response potential by</t>
+  </si>
+  <si>
+    <t>the growth in peak demand (EPS model output).</t>
+  </si>
+  <si>
+    <t>We use a Brattle analysis to estimate the potential in 2030, and scale the potential between 2019 and 2030 linearly.</t>
+  </si>
+  <si>
+    <t>We then scale the potential from 2030 to 2050 by the growth in peak demand (EPS model output).</t>
+  </si>
+  <si>
+    <t>Peak Power Demand after Storage and DR[summer] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Peak Demand - US EPS (version 3.0)</t>
+  </si>
+  <si>
+    <t>Peak Demand - Brazil EPS (version 2.1.2)</t>
+  </si>
+  <si>
     <t>Peak Power Demand : MostRecentRun</t>
   </si>
   <si>
-    <t>Peak Demand - EPS Output</t>
-  </si>
-  <si>
-    <t>To estimate BAU DR Capacity, we scale Brattle's 2019 estimate of demand response potential by</t>
-  </si>
-  <si>
-    <t>the growth in peak demand (EPS model output).</t>
-  </si>
-  <si>
-    <t>We use a Brattle analysis to estimate the potential in 2030, and scale the potential between 2019 and 2030 linearly.</t>
-  </si>
-  <si>
-    <t>We then scale the potential from 2030 to 2050 by the growth in peak demand (EPS model output).</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Installed Cap (GW)</t>
-  </si>
-  <si>
-    <t>Notes (Brazil):</t>
-  </si>
-  <si>
-    <t>We were not able to find data for the case of Brazil for the case of this variable</t>
-  </si>
-  <si>
-    <t>Thus, we considered the BAU Demand Response Capacity proportionally to the ratio between the Brazilian installed cap and the US installed capacity</t>
+    <t>Ratio of Brazil:US Peak Power Demand</t>
+  </si>
+  <si>
+    <t>We then scale to Brazil based on the ratio of Brazil:US peak power demand.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,15 +133,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +144,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,12 +157,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -203,12 +182,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,7 +490,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -584,12 +561,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -597,12 +574,12 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6"/>
     </row>
@@ -611,21 +588,17 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="6"/>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -666,463 +639,965 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>59000</v>
+      </c>
+      <c r="B3">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6">
+        <v>2021</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
+      </c>
+      <c r="G6">
+        <v>2024</v>
+      </c>
+      <c r="H6">
+        <v>2025</v>
+      </c>
+      <c r="I6">
+        <v>2026</v>
+      </c>
+      <c r="J6">
+        <v>2027</v>
+      </c>
+      <c r="K6">
+        <v>2028</v>
+      </c>
+      <c r="L6">
+        <v>2029</v>
+      </c>
+      <c r="M6">
+        <v>2030</v>
+      </c>
+      <c r="N6">
+        <v>2031</v>
+      </c>
+      <c r="O6">
+        <v>2032</v>
+      </c>
+      <c r="P6">
+        <v>2033</v>
+      </c>
+      <c r="Q6">
+        <v>2034</v>
+      </c>
+      <c r="R6">
+        <v>2035</v>
+      </c>
+      <c r="S6">
+        <v>2036</v>
+      </c>
+      <c r="T6">
+        <v>2037</v>
+      </c>
+      <c r="U6">
+        <v>2038</v>
+      </c>
+      <c r="V6">
+        <v>2039</v>
+      </c>
+      <c r="W6">
+        <v>2040</v>
+      </c>
+      <c r="X6">
+        <v>2041</v>
+      </c>
+      <c r="Y6">
+        <v>2042</v>
+      </c>
+      <c r="Z6">
+        <v>2043</v>
+      </c>
+      <c r="AA6">
+        <v>2044</v>
+      </c>
+      <c r="AB6">
+        <v>2045</v>
+      </c>
+      <c r="AC6">
+        <v>2046</v>
+      </c>
+      <c r="AD6">
+        <v>2047</v>
+      </c>
+      <c r="AE6">
+        <v>2048</v>
+      </c>
+      <c r="AF6">
+        <v>2049</v>
+      </c>
+      <c r="AG6">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>752136</v>
+      </c>
+      <c r="C7">
+        <v>683006</v>
+      </c>
+      <c r="D7">
+        <v>728954</v>
+      </c>
+      <c r="E7">
+        <v>745991</v>
+      </c>
+      <c r="F7">
+        <v>757422</v>
+      </c>
+      <c r="G7">
+        <v>766081</v>
+      </c>
+      <c r="H7">
+        <v>772495</v>
+      </c>
+      <c r="I7">
+        <v>776739</v>
+      </c>
+      <c r="J7">
+        <v>779659</v>
+      </c>
+      <c r="K7">
+        <v>784465</v>
+      </c>
+      <c r="L7">
+        <v>792336</v>
+      </c>
+      <c r="M7">
+        <v>796481</v>
+      </c>
+      <c r="N7">
+        <v>800947</v>
+      </c>
+      <c r="O7">
+        <v>806133</v>
+      </c>
+      <c r="P7">
+        <v>810368</v>
+      </c>
+      <c r="Q7">
+        <v>814654</v>
+      </c>
+      <c r="R7">
+        <v>819808</v>
+      </c>
+      <c r="S7">
+        <v>824754</v>
+      </c>
+      <c r="T7">
+        <v>830998</v>
+      </c>
+      <c r="U7">
+        <v>836502</v>
+      </c>
+      <c r="V7" s="13">
+        <v>841698</v>
+      </c>
+      <c r="W7" s="13">
+        <v>847887</v>
+      </c>
+      <c r="X7" s="13">
+        <v>853549</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>859603</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>866464</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>873306</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>881021</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>888875</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>896015</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>903925</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>912866</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>922440</v>
+      </c>
+      <c r="AH7" s="13"/>
+    </row>
+    <row r="9" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+      <c r="G10">
+        <v>2023</v>
+      </c>
+      <c r="H10">
+        <v>2024</v>
+      </c>
+      <c r="I10">
+        <v>2025</v>
+      </c>
+      <c r="J10">
+        <v>2026</v>
+      </c>
+      <c r="K10">
+        <v>2027</v>
+      </c>
+      <c r="L10">
+        <v>2028</v>
+      </c>
+      <c r="M10">
+        <v>2029</v>
+      </c>
+      <c r="N10">
+        <v>2030</v>
+      </c>
+      <c r="O10">
+        <v>2031</v>
+      </c>
+      <c r="P10">
+        <v>2032</v>
+      </c>
+      <c r="Q10">
+        <v>2033</v>
+      </c>
+      <c r="R10">
+        <v>2034</v>
+      </c>
+      <c r="S10">
+        <v>2035</v>
+      </c>
+      <c r="T10">
+        <v>2036</v>
+      </c>
+      <c r="U10">
+        <v>2037</v>
+      </c>
+      <c r="V10">
+        <v>2038</v>
+      </c>
+      <c r="W10">
+        <v>2039</v>
+      </c>
+      <c r="X10">
+        <v>2040</v>
+      </c>
+      <c r="Y10">
+        <v>2041</v>
+      </c>
+      <c r="Z10">
+        <v>2042</v>
+      </c>
+      <c r="AA10">
+        <v>2043</v>
+      </c>
+      <c r="AB10">
+        <v>2044</v>
+      </c>
+      <c r="AC10">
+        <v>2045</v>
+      </c>
+      <c r="AD10">
+        <v>2046</v>
+      </c>
+      <c r="AE10">
+        <v>2047</v>
+      </c>
+      <c r="AF10">
+        <v>2048</v>
+      </c>
+      <c r="AG10">
+        <v>2049</v>
+      </c>
+      <c r="AH10">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>96808.5</v>
+      </c>
+      <c r="C11">
+        <v>99343.1</v>
+      </c>
+      <c r="D11">
+        <v>101859</v>
+      </c>
+      <c r="E11">
+        <v>104380</v>
+      </c>
+      <c r="F11">
+        <v>107196</v>
+      </c>
+      <c r="G11">
+        <v>109820</v>
+      </c>
+      <c r="H11">
+        <v>112494</v>
+      </c>
+      <c r="I11">
+        <v>115181</v>
+      </c>
+      <c r="J11">
+        <v>117596</v>
+      </c>
+      <c r="K11">
+        <v>120040</v>
+      </c>
+      <c r="L11">
+        <v>122503</v>
+      </c>
+      <c r="M11">
+        <v>124640</v>
+      </c>
+      <c r="N11">
+        <v>126967</v>
+      </c>
+      <c r="O11">
+        <v>129067</v>
+      </c>
+      <c r="P11">
+        <v>131239</v>
+      </c>
+      <c r="Q11">
+        <v>133478</v>
+      </c>
+      <c r="R11">
+        <v>135655</v>
+      </c>
+      <c r="S11">
+        <v>137838</v>
+      </c>
+      <c r="T11">
+        <v>140004</v>
+      </c>
+      <c r="U11">
+        <v>142096</v>
+      </c>
+      <c r="V11" s="13">
+        <v>144225</v>
+      </c>
+      <c r="W11" s="13">
+        <v>146208</v>
+      </c>
+      <c r="X11" s="13">
+        <v>148222</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>150143</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>152126</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>154097</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>156112</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>157999</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>159595</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>161249</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>162835</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>164486</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>166064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+      <c r="F14">
+        <v>2023</v>
+      </c>
+      <c r="G14">
+        <v>2024</v>
+      </c>
+      <c r="H14">
+        <v>2025</v>
+      </c>
+      <c r="I14">
+        <v>2026</v>
+      </c>
+      <c r="J14">
+        <v>2027</v>
+      </c>
+      <c r="K14">
+        <v>2028</v>
+      </c>
+      <c r="L14">
+        <v>2029</v>
+      </c>
+      <c r="M14">
+        <v>2030</v>
+      </c>
+      <c r="N14">
+        <v>2031</v>
+      </c>
+      <c r="O14">
+        <v>2032</v>
+      </c>
+      <c r="P14">
+        <v>2033</v>
+      </c>
+      <c r="Q14">
+        <v>2034</v>
+      </c>
+      <c r="R14">
+        <v>2035</v>
+      </c>
+      <c r="S14">
+        <v>2036</v>
+      </c>
+      <c r="T14">
+        <v>2037</v>
+      </c>
+      <c r="U14">
+        <v>2038</v>
+      </c>
+      <c r="V14">
+        <v>2039</v>
+      </c>
+      <c r="W14">
+        <v>2040</v>
+      </c>
+      <c r="X14">
+        <v>2041</v>
+      </c>
+      <c r="Y14">
+        <v>2042</v>
+      </c>
+      <c r="Z14">
+        <v>2043</v>
+      </c>
+      <c r="AA14">
+        <v>2044</v>
+      </c>
+      <c r="AB14">
+        <v>2045</v>
+      </c>
+      <c r="AC14">
+        <v>2046</v>
+      </c>
+      <c r="AD14">
+        <v>2047</v>
+      </c>
+      <c r="AE14">
+        <v>2048</v>
+      </c>
+      <c r="AF14">
+        <v>2049</v>
+      </c>
+      <c r="AG14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="14">
-        <f>B2/B3</f>
-        <v>0.15887850467289719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
+      <c r="B15">
+        <f>C11/B7</f>
+        <v>0.13208129912675368</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AG15" si="0">D11/C7</f>
+        <v>0.14913338975060247</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.14319147710280758</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.14369610357229512</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.14499182754131779</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.14684347999754596</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.14910258318824071</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.15139705872886516</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.15396474612619107</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.15616120540750703</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.15730700107025303</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0.15940995453752194</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.16114299697732809</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0.16280067929237482</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0.16471282182909494</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0.1665185465240458</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0.16813449002693315</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0.16975243527160827</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0.17099439469168398</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0.1724144114419332</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0.17370600856839388</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0.17481338904830479</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>0.1759043710437245</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0.1769723930698241</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0.17784581933005872</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>0.17875979324543745</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0.17933624737662326</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>0.17954718042469414</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>0.17996238902250519</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>0.18014215781176535</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>0.18018635812923256</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="0"/>
+        <v>0.18002688521746671</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH7"/>
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
         <v>2019</v>
       </c>
-      <c r="B2" s="12">
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1">
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <v>2025</v>
+      </c>
+      <c r="J1">
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <v>2027</v>
+      </c>
+      <c r="L1">
+        <v>2028</v>
+      </c>
+      <c r="M1">
+        <v>2029</v>
+      </c>
+      <c r="N1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>59000</v>
-      </c>
-      <c r="B3">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>2018</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6">
-        <v>2020</v>
-      </c>
-      <c r="E6">
-        <v>2021</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-      <c r="G6">
-        <v>2023</v>
-      </c>
-      <c r="H6">
-        <v>2024</v>
-      </c>
-      <c r="I6">
-        <v>2025</v>
-      </c>
-      <c r="J6">
-        <v>2026</v>
-      </c>
-      <c r="K6">
-        <v>2027</v>
-      </c>
-      <c r="L6">
-        <v>2028</v>
-      </c>
-      <c r="M6">
-        <v>2029</v>
-      </c>
-      <c r="N6">
-        <v>2030</v>
-      </c>
-      <c r="O6">
+      <c r="O1">
         <v>2031</v>
       </c>
-      <c r="P6">
+      <c r="P1">
         <v>2032</v>
       </c>
-      <c r="Q6">
+      <c r="Q1">
         <v>2033</v>
       </c>
-      <c r="R6">
+      <c r="R1">
         <v>2034</v>
       </c>
-      <c r="S6">
+      <c r="S1">
         <v>2035</v>
       </c>
-      <c r="T6">
+      <c r="T1">
         <v>2036</v>
       </c>
-      <c r="U6">
+      <c r="U1">
         <v>2037</v>
       </c>
-      <c r="V6">
+      <c r="V1">
         <v>2038</v>
       </c>
-      <c r="W6">
+      <c r="W1">
         <v>2039</v>
       </c>
-      <c r="X6">
+      <c r="X1">
         <v>2040</v>
       </c>
-      <c r="Y6">
+      <c r="Y1">
         <v>2041</v>
       </c>
-      <c r="Z6">
+      <c r="Z1">
         <v>2042</v>
       </c>
-      <c r="AA6">
+      <c r="AA1">
         <v>2043</v>
       </c>
-      <c r="AB6">
+      <c r="AB1">
         <v>2044</v>
       </c>
-      <c r="AC6">
+      <c r="AC1">
         <v>2045</v>
       </c>
-      <c r="AD6">
+      <c r="AD1">
         <v>2046</v>
       </c>
-      <c r="AE6">
+      <c r="AE1">
         <v>2047</v>
       </c>
-      <c r="AF6">
+      <c r="AF1">
         <v>2048</v>
       </c>
-      <c r="AG6">
+      <c r="AG1">
         <v>2049</v>
       </c>
-      <c r="AH6">
+      <c r="AH1">
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>855335</v>
-      </c>
-      <c r="C7">
-        <v>860978</v>
-      </c>
-      <c r="D7">
-        <v>829114</v>
-      </c>
-      <c r="E7">
-        <v>858530</v>
-      </c>
-      <c r="F7">
-        <v>873258</v>
-      </c>
-      <c r="G7">
-        <v>882009</v>
-      </c>
-      <c r="H7">
-        <v>888855</v>
-      </c>
-      <c r="I7">
-        <v>895021</v>
-      </c>
-      <c r="J7">
-        <v>900356</v>
-      </c>
-      <c r="K7">
-        <v>906369</v>
-      </c>
-      <c r="L7">
-        <v>914175</v>
-      </c>
-      <c r="M7">
-        <v>922266</v>
-      </c>
-      <c r="N7">
-        <v>928730</v>
-      </c>
-      <c r="O7">
-        <v>936606</v>
-      </c>
-      <c r="P7">
-        <v>944847</v>
-      </c>
-      <c r="Q7">
-        <v>953566</v>
-      </c>
-      <c r="R7">
-        <v>964006</v>
-      </c>
-      <c r="S7">
-        <v>975128</v>
-      </c>
-      <c r="T7">
-        <v>986997</v>
-      </c>
-      <c r="U7">
-        <v>999406</v>
-      </c>
-      <c r="V7" s="13">
-        <v>1012500</v>
-      </c>
-      <c r="W7" s="13">
-        <v>1025280</v>
-      </c>
-      <c r="X7" s="13">
-        <v>1037640</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>1049540</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>1061480</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>1073060</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>1084970</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>1096540</v>
-      </c>
-      <c r="AD7" s="13">
-        <v>1107910</v>
-      </c>
-      <c r="AE7" s="13">
-        <v>1118780</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>1129250</v>
-      </c>
-      <c r="AG7" s="13">
-        <v>1138970</v>
-      </c>
-      <c r="AH7" s="13">
-        <v>1149120</v>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <f>C2</f>
+        <v>7792.7966484784665</v>
+      </c>
+      <c r="C2" s="8">
+        <f>Calculations!A3*Calculations!B15</f>
+        <v>7792.7966484784665</v>
+      </c>
+      <c r="D2" s="8">
+        <f>$C$2*(Calculations!C7/Calculations!$B$7)</f>
+        <v>7076.5484801826842</v>
+      </c>
+      <c r="E2" s="8">
+        <f>$C$2*(Calculations!D7/Calculations!$B$7)</f>
+        <v>7552.6105492822735</v>
+      </c>
+      <c r="F2" s="8">
+        <f>$C$2*(Calculations!E7/Calculations!$B$7)</f>
+        <v>7729.1289934202059</v>
+      </c>
+      <c r="G2" s="8">
+        <f>$C$2*(Calculations!F7/Calculations!$B$7)</f>
+        <v>7847.5643009826108</v>
+      </c>
+      <c r="H2" s="8">
+        <f>$C$2*(Calculations!G7/Calculations!$B$7)</f>
+        <v>7937.2792277766684</v>
+      </c>
+      <c r="I2" s="8">
+        <f>$C$2*(Calculations!H7/Calculations!$B$7)</f>
+        <v>8003.7339616324352</v>
+      </c>
+      <c r="J2" s="8">
+        <f>$C$2*(Calculations!I7/Calculations!$B$7)</f>
+        <v>8047.7055691291416</v>
+      </c>
+      <c r="K2" s="8">
+        <f>$C$2*(Calculations!J7/Calculations!$B$7)</f>
+        <v>8077.9593612805029</v>
+      </c>
+      <c r="L2" s="8">
+        <f>$C$2*(Calculations!K7/Calculations!$B$7)</f>
+        <v>8127.7537876775741</v>
+      </c>
+      <c r="M2" s="8">
+        <f>$C$2*(Calculations!L7/Calculations!$B$7)</f>
+        <v>8209.304334945853</v>
+      </c>
+      <c r="N2" s="8">
+        <f>$C$2*(Calculations!M7/Calculations!$B$7)</f>
+        <v>8252.2502145579765</v>
+      </c>
+      <c r="O2" s="8">
+        <f>$C$2*(Calculations!N7/Calculations!$B$7)</f>
+        <v>8298.5219391292048</v>
+      </c>
+      <c r="P2" s="8">
+        <f>$C$2*(Calculations!O7/Calculations!$B$7)</f>
+        <v>8352.25350286104</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>$C$2*(Calculations!P7/Calculations!$B$7)</f>
+        <v>8396.13186236824</v>
+      </c>
+      <c r="R2" s="8">
+        <f>$C$2*(Calculations!Q7/Calculations!$B$7)</f>
+        <v>8440.5386271493153</v>
+      </c>
+      <c r="S2" s="8">
+        <f>$C$2*(Calculations!R7/Calculations!$B$7)</f>
+        <v>8493.9386424740132</v>
+      </c>
+      <c r="T2" s="8">
+        <f>$C$2*(Calculations!S7/Calculations!$B$7)</f>
+        <v>8545.1835931523146</v>
+      </c>
+      <c r="U2" s="8">
+        <f>$C$2*(Calculations!T7/Calculations!$B$7)</f>
+        <v>8609.87697609516</v>
+      </c>
+      <c r="V2" s="8">
+        <f>$C$2*(Calculations!U7/Calculations!$B$7)</f>
+        <v>8666.9033021229316</v>
+      </c>
+      <c r="W2" s="8">
+        <f>$C$2*(Calculations!V7/Calculations!$B$7)</f>
+        <v>8720.7384747320011</v>
+      </c>
+      <c r="X2" s="8">
+        <f>$C$2*(Calculations!W7/Calculations!$B$7)</f>
+        <v>8784.8620088500775</v>
+      </c>
+      <c r="Y2" s="8">
+        <f>$C$2*(Calculations!X7/Calculations!$B$7)</f>
+        <v>8843.5253551380956</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>$C$2*(Calculations!Y7/Calculations!$B$7)</f>
+        <v>8906.2501694135572</v>
+      </c>
+      <c r="AA2" s="8">
+        <f>$C$2*(Calculations!Z7/Calculations!$B$7)</f>
+        <v>8977.3362200815354</v>
+      </c>
+      <c r="AB2" s="8">
+        <f>$C$2*(Calculations!AA7/Calculations!$B$7)</f>
+        <v>9048.2254138827757</v>
+      </c>
+      <c r="AC2" s="8">
+        <f>$C$2*(Calculations!AB7/Calculations!$B$7)</f>
+        <v>9128.1596626662558</v>
+      </c>
+      <c r="AD2" s="8">
+        <f>$C$2*(Calculations!AC7/Calculations!$B$7)</f>
+        <v>9209.5340748432409</v>
+      </c>
+      <c r="AE2" s="8">
+        <f>$C$2*(Calculations!AD7/Calculations!$B$7)</f>
+        <v>9283.5108131859579</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>$C$2*(Calculations!AE7/Calculations!$B$7)</f>
+        <v>9365.4654350754372</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>$C$2*(Calculations!AF7/Calculations!$B$7)</f>
+        <v>9458.1021322073975</v>
+      </c>
+      <c r="AH2" s="8">
+        <f>$C$2*(Calculations!AG7/Calculations!$B$7)</f>
+        <v>9557.2972712680657</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1134,269 +1609,7 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2018</v>
-      </c>
-      <c r="C1">
-        <v>2019</v>
-      </c>
-      <c r="D1">
-        <v>2020</v>
-      </c>
-      <c r="E1">
-        <v>2021</v>
-      </c>
-      <c r="F1">
-        <v>2022</v>
-      </c>
-      <c r="G1">
-        <v>2023</v>
-      </c>
-      <c r="H1">
-        <v>2024</v>
-      </c>
-      <c r="I1">
-        <v>2025</v>
-      </c>
-      <c r="J1">
-        <v>2026</v>
-      </c>
-      <c r="K1">
-        <v>2027</v>
-      </c>
-      <c r="L1">
-        <v>2028</v>
-      </c>
-      <c r="M1">
-        <v>2029</v>
-      </c>
-      <c r="N1">
-        <v>2030</v>
-      </c>
-      <c r="O1">
-        <v>2031</v>
-      </c>
-      <c r="P1">
-        <v>2032</v>
-      </c>
-      <c r="Q1">
-        <v>2033</v>
-      </c>
-      <c r="R1">
-        <v>2034</v>
-      </c>
-      <c r="S1">
-        <v>2035</v>
-      </c>
-      <c r="T1">
-        <v>2036</v>
-      </c>
-      <c r="U1">
-        <v>2037</v>
-      </c>
-      <c r="V1">
-        <v>2038</v>
-      </c>
-      <c r="W1">
-        <v>2039</v>
-      </c>
-      <c r="X1">
-        <v>2040</v>
-      </c>
-      <c r="Y1">
-        <v>2041</v>
-      </c>
-      <c r="Z1">
-        <v>2042</v>
-      </c>
-      <c r="AA1">
-        <v>2043</v>
-      </c>
-      <c r="AB1">
-        <v>2044</v>
-      </c>
-      <c r="AC1">
-        <v>2045</v>
-      </c>
-      <c r="AD1">
-        <v>2046</v>
-      </c>
-      <c r="AE1">
-        <v>2047</v>
-      </c>
-      <c r="AF1">
-        <v>2048</v>
-      </c>
-      <c r="AG1">
-        <v>2049</v>
-      </c>
-      <c r="AH1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8">
-        <f>C2*'Brazil-USA'!$B$4</f>
-        <v>1489.3003755786528</v>
-      </c>
-      <c r="C2" s="8">
-        <f>Calculations!A3*'Brazil-USA'!$B$4</f>
-        <v>9373.8317757009336</v>
-      </c>
-      <c r="D2" s="8">
-        <f>$C$2*(Calculations!D7/Calculations!$C$7)</f>
-        <v>9026.9149256758064</v>
-      </c>
-      <c r="E2" s="8">
-        <f>$C$2*(Calculations!E7/Calculations!$C$7)</f>
-        <v>9347.1793639239586</v>
-      </c>
-      <c r="F2" s="8">
-        <f>$C$2*(Calculations!F7/Calculations!$C$7)</f>
-        <v>9507.5293315102663</v>
-      </c>
-      <c r="G2" s="8">
-        <f>$C$2*(Calculations!G7/Calculations!$C$7)</f>
-        <v>9602.8051711590833</v>
-      </c>
-      <c r="H2" s="8">
-        <f>$C$2*(Calculations!H7/Calculations!$C$7)</f>
-        <v>9677.3404697804745</v>
-      </c>
-      <c r="I2" s="8">
-        <f>$C$2*(Calculations!I7/Calculations!$C$7)</f>
-        <v>9744.4723206860399</v>
-      </c>
-      <c r="J2" s="8">
-        <f>$C$2*(Calculations!J7/Calculations!$C$7)</f>
-        <v>9802.5567229859407</v>
-      </c>
-      <c r="K2" s="8">
-        <f>$C$2*(Calculations!K7/Calculations!$C$7)</f>
-        <v>9868.0227981554472</v>
-      </c>
-      <c r="L2" s="8">
-        <f>$C$2*(Calculations!L7/Calculations!$C$7)</f>
-        <v>9953.0100229638865</v>
-      </c>
-      <c r="M2" s="8">
-        <f>$C$2*(Calculations!M7/Calculations!$C$7)</f>
-        <v>10041.100163359106</v>
-      </c>
-      <c r="N2" s="8">
-        <f>$C$2*(Calculations!N7/Calculations!$C$7)</f>
-        <v>10111.476466351902</v>
-      </c>
-      <c r="O2" s="8">
-        <f>$C$2*(Calculations!O7/Calculations!$C$7)</f>
-        <v>10197.225810778149</v>
-      </c>
-      <c r="P2" s="8">
-        <f>$C$2*(Calculations!P7/Calculations!$C$7)</f>
-        <v>10286.949064640095</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>$C$2*(Calculations!Q7/Calculations!$C$7)</f>
-        <v>10381.876506749344</v>
-      </c>
-      <c r="R2" s="8">
-        <f>$C$2*(Calculations!R7/Calculations!$C$7)</f>
-        <v>10495.5412040335</v>
-      </c>
-      <c r="S2" s="8">
-        <f>$C$2*(Calculations!S7/Calculations!$C$7)</f>
-        <v>10616.631123879704</v>
-      </c>
-      <c r="T2" s="8">
-        <f>$C$2*(Calculations!T7/Calculations!$C$7)</f>
-        <v>10745.853948790207</v>
-      </c>
-      <c r="U2" s="8">
-        <f>$C$2*(Calculations!U7/Calculations!$C$7)</f>
-        <v>10880.955982180923</v>
-      </c>
-      <c r="V2" s="8">
-        <f>$C$2*(Calculations!V7/Calculations!$C$7)</f>
-        <v>11023.515900403025</v>
-      </c>
-      <c r="W2" s="8">
-        <f>$C$2*(Calculations!W7/Calculations!$C$7)</f>
-        <v>11162.657167768111</v>
-      </c>
-      <c r="X2" s="8">
-        <f>$C$2*(Calculations!X7/Calculations!$C$7)</f>
-        <v>11297.225717426365</v>
-      </c>
-      <c r="Y2" s="8">
-        <f>$C$2*(Calculations!Y7/Calculations!$C$7)</f>
-        <v>11426.786052453323</v>
-      </c>
-      <c r="Z2" s="8">
-        <f>$C$2*(Calculations!Z7/Calculations!$C$7)</f>
-        <v>11556.781884404743</v>
-      </c>
-      <c r="AA2" s="8">
-        <f>$C$2*(Calculations!AA7/Calculations!$C$7)</f>
-        <v>11682.858244036019</v>
-      </c>
-      <c r="AB2" s="8">
-        <f>$C$2*(Calculations!AB7/Calculations!$C$7)</f>
-        <v>11812.527453294093</v>
-      </c>
-      <c r="AC2" s="8">
-        <f>$C$2*(Calculations!AC7/Calculations!$C$7)</f>
-        <v>11938.494938694254</v>
-      </c>
-      <c r="AD2" s="8">
-        <f>$C$2*(Calculations!AD7/Calculations!$C$7)</f>
-        <v>12062.284939472114</v>
-      </c>
-      <c r="AE2" s="8">
-        <f>$C$2*(Calculations!AE7/Calculations!$C$7)</f>
-        <v>12180.631228694219</v>
-      </c>
-      <c r="AF2" s="8">
-        <f>$C$2*(Calculations!AF7/Calculations!$C$7)</f>
-        <v>12294.622548671719</v>
-      </c>
-      <c r="AG2" s="8">
-        <f>$C$2*(Calculations!AG7/Calculations!$C$7)</f>
-        <v>12400.448301315588</v>
-      </c>
-      <c r="AH2" s="8">
-        <f>$C$2*(Calculations!AH7/Calculations!$C$7)</f>
-        <v>12510.955645897406</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AH2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1513,136 +1726,136 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f>C2*'Brazil-USA'!$B$4</f>
-        <v>1489.3003755786528</v>
+        <f>C2</f>
+        <v>0</v>
       </c>
       <c r="C2" s="8">
-        <f>Calculations!A3*'Brazil-USA'!$B$4</f>
-        <v>9373.8317757009336</v>
+        <f>Calculations!A3*Calculations!B15-'DRC-BDRC'!C2</f>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!D1)*'Brazil-USA'!$B$4</f>
-        <v>11381.478334749308</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!D1)*Calculations!B15-'DRC-BDRC'!D2</f>
+        <v>2385.2754936247165</v>
       </c>
       <c r="E2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!E1)*'Brazil-USA'!$B$4</f>
-        <v>13389.124893798275</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!E1)*Calculations!C15-'DRC-BDRC'!E2</f>
+        <v>5015.2669324280432</v>
       </c>
       <c r="F2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!F1)*'Brazil-USA'!$B$4</f>
-        <v>15396.771452846649</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!F1)*Calculations!D15-'DRC-BDRC'!F2</f>
+        <v>6147.4268785431714</v>
       </c>
       <c r="G2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!G1)*'Brazil-USA'!$B$4</f>
-        <v>17404.418011895024</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!G1)*Calculations!E15-'DRC-BDRC'!G2</f>
+        <v>7893.6906812555135</v>
       </c>
       <c r="H2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!H1)*'Brazil-USA'!$B$4</f>
-        <v>19412.064570943396</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!H1)*Calculations!F15-'DRC-BDRC'!H2</f>
+        <v>9778.0858827264565</v>
       </c>
       <c r="I2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!I1)*'Brazil-USA'!$B$4</f>
-        <v>21419.711129991771</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!I1)*Calculations!G15-'DRC-BDRC'!I2</f>
+        <v>11793.437023491511</v>
       </c>
       <c r="J2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!J1)*'Brazil-USA'!$B$4</f>
-        <v>23427.357689040145</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!J1)*Calculations!H15-'DRC-BDRC'!J2</f>
+        <v>13938.148060991643</v>
       </c>
       <c r="K2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!K1)*'Brazil-USA'!$B$4</f>
-        <v>25435.00424808852</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!K1)*Calculations!I15-'DRC-BDRC'!K2</f>
+        <v>16159.333404313427</v>
       </c>
       <c r="L2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!L1)*'Brazil-USA'!$B$4</f>
-        <v>27442.650807136895</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!L1)*Calculations!J15-'DRC-BDRC'!L2</f>
+        <v>18466.156906846441</v>
       </c>
       <c r="M2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!M1)*'Brazil-USA'!$B$4</f>
-        <v>29450.29736618527</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!M1)*Calculations!K15-'DRC-BDRC'!M2</f>
+        <v>20737.304558318458</v>
       </c>
       <c r="N2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)*'Brazil-USA'!$B$4</f>
-        <v>31457.943925233641</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)*Calculations!M15-'DRC-BDRC'!N2</f>
+        <v>23310.92078387137</v>
       </c>
       <c r="O2" s="8">
-        <f>$N$2*(Calculations!O7/Calculations!$N$7)</f>
-        <v>31724.719808811366</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!O1)*Calculations!N15-'DRC-BDRC'!O2</f>
+        <v>25644.052969640667</v>
       </c>
       <c r="P2" s="8">
-        <f>$N$2*(Calculations!P7/Calculations!$N$7)</f>
-        <v>32003.858972925638</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!P1)*Calculations!O15-'DRC-BDRC'!P2</f>
+        <v>27996.698164600599</v>
       </c>
       <c r="Q2" s="8">
-        <f>$N$2*(Calculations!Q7/Calculations!$N$7)</f>
-        <v>32299.188953742578</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Q1)*Calculations!P15-'DRC-BDRC'!Q2</f>
+        <v>30461.120196405063</v>
       </c>
       <c r="R2" s="8">
-        <f>$N$2*(Calculations!R7/Calculations!$N$7)</f>
-        <v>32652.812649089385</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!R1)*Calculations!Q15-'DRC-BDRC'!R2</f>
+        <v>32946.889208918466</v>
       </c>
       <c r="S2" s="8">
-        <f>$N$2*(Calculations!S7/Calculations!$N$7)</f>
-        <v>33029.537049438732</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!S1)*Calculations!R15-'DRC-BDRC'!S2</f>
+        <v>35419.733161833501</v>
       </c>
       <c r="T2" s="8">
-        <f>$N$2*(Calculations!T7/Calculations!$N$7)</f>
-        <v>33431.563834886168</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!T1)*Calculations!S15-'DRC-BDRC'!T2</f>
+        <v>37936.119592128343</v>
       </c>
       <c r="U2" s="8">
-        <f>$N$2*(Calculations!U7/Calculations!$N$7)</f>
-        <v>33851.881501127398</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!U1)*Calculations!T15-'DRC-BDRC'!U2</f>
+        <v>40372.244630586545</v>
       </c>
       <c r="V2" s="8">
-        <f>$N$2*(Calculations!V7/Calculations!$N$7)</f>
-        <v>34295.401488375588</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!V1)*Calculations!U15-'DRC-BDRC'!V2</f>
+        <v>42900.679756419078</v>
       </c>
       <c r="W2" s="8">
-        <f>$N$2*(Calculations!W7/Calculations!$N$7)</f>
-        <v>34728.285667162192</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!W1)*Calculations!V15-'DRC-BDRC'!W2</f>
+        <v>45428.161832633807</v>
       </c>
       <c r="X2" s="8">
-        <f>$N$2*(Calculations!X7/Calculations!$N$7)</f>
-        <v>35146.943605331406</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!X1)*Calculations!W15-'DRC-BDRC'!X2</f>
+        <v>47918.244547909213</v>
       </c>
       <c r="Y2" s="8">
-        <f>$N$2*(Calculations!Y7/Calculations!$N$7)</f>
-        <v>35550.020422824411</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Y1)*Calculations!X15-'DRC-BDRC'!Y2</f>
+        <v>50436.24768659706</v>
       </c>
       <c r="Z2" s="8">
-        <f>$N$2*(Calculations!Z7/Calculations!$N$7)</f>
-        <v>35954.45212037622</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Z1)*Calculations!Y15-'DRC-BDRC'!Z2</f>
+        <v>52969.733807544879</v>
       </c>
       <c r="AA2" s="8">
-        <f>$N$2*(Calculations!AA7/Calculations!$N$7)</f>
-        <v>36346.689897398828</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AA1)*Calculations!Z15-'DRC-BDRC'!AA2</f>
+        <v>55451.3537826721</v>
       </c>
       <c r="AB2" s="8">
-        <f>$N$2*(Calculations!AB7/Calculations!$N$7)</f>
-        <v>36750.105434906531</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AB1)*Calculations!AA15-'DRC-BDRC'!AB2</f>
+        <v>57970.446162861706</v>
       </c>
       <c r="AC2" s="8">
-        <f>$N$2*(Calculations!AC7/Calculations!$N$7)</f>
-        <v>37142.004491914442</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AC1)*Calculations!AB15-'DRC-BDRC'!AC2</f>
+        <v>60372.78784338371</v>
       </c>
       <c r="AD2" s="8">
-        <f>$N$2*(Calculations!AD7/Calculations!$N$7)</f>
-        <v>37527.129148628344</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AD1)*Calculations!AC15-'DRC-BDRC'!AD2</f>
+        <v>62641.983036930171</v>
       </c>
       <c r="AE2" s="8">
-        <f>$N$2*(Calculations!AE7/Calculations!$N$7)</f>
-        <v>37895.31780460725</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AE1)*Calculations!AD15-'DRC-BDRC'!AE2</f>
+        <v>65008.235418741257</v>
       </c>
       <c r="AF2" s="8">
-        <f>$N$2*(Calculations!AF7/Calculations!$N$7)</f>
-        <v>38249.957659998159</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AF1)*Calculations!AE15-'DRC-BDRC'!AF2</f>
+        <v>67276.834433930417</v>
       </c>
       <c r="AG2" s="8">
-        <f>$N$2*(Calculations!AG7/Calculations!$N$7)</f>
-        <v>38579.193514286562</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AG1)*Calculations!AF15-'DRC-BDRC'!AG2</f>
+        <v>69479.903306408392</v>
       </c>
       <c r="AH2" s="8">
-        <f>$N$2*(Calculations!AH7/Calculations!$N$7)</f>
-        <v>38922.994329207067</v>
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AH1)*Calculations!AG15-'DRC-BDRC'!AH2</f>
+        <v>71585.729720386604</v>
       </c>
     </row>
   </sheetData>
